--- a/data/pca/factorExposure/factorExposure_2014-11-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.002604432213856594</v>
+        <v>0.009037247616173373</v>
       </c>
       <c r="C2">
-        <v>-0.08243925182243607</v>
+        <v>-0.07435869260009786</v>
       </c>
       <c r="D2">
-        <v>0.1567918717754457</v>
+        <v>-0.003286671857979347</v>
       </c>
       <c r="E2">
-        <v>-0.1352182554613044</v>
+        <v>0.1748056182364078</v>
       </c>
       <c r="F2">
-        <v>-0.1608095464295624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03409214199349773</v>
+      </c>
+      <c r="G2">
+        <v>0.0544824262908291</v>
+      </c>
+      <c r="H2">
+        <v>-0.06653322827885756</v>
+      </c>
+      <c r="I2">
+        <v>-0.2260370923384923</v>
+      </c>
+      <c r="J2">
+        <v>0.09316004635090717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.02419118422303717</v>
+        <v>0.01575955709637178</v>
       </c>
       <c r="C4">
-        <v>-0.1551934585507515</v>
+        <v>-0.151642645704242</v>
       </c>
       <c r="D4">
-        <v>0.05741432632998437</v>
+        <v>-0.03929840784743065</v>
       </c>
       <c r="E4">
-        <v>-0.09349806308987722</v>
+        <v>0.09163981034571748</v>
       </c>
       <c r="F4">
-        <v>0.03004216908050829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06010329958380999</v>
+      </c>
+      <c r="G4">
+        <v>-0.0008268829780918146</v>
+      </c>
+      <c r="H4">
+        <v>-0.1148750702853999</v>
+      </c>
+      <c r="I4">
+        <v>-0.06664215557483633</v>
+      </c>
+      <c r="J4">
+        <v>0.120905253307116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01633844535775567</v>
+        <v>0.03277561997029245</v>
       </c>
       <c r="C6">
-        <v>-0.06952030566193744</v>
+        <v>-0.07059766434439338</v>
       </c>
       <c r="D6">
-        <v>0.06529828432753905</v>
+        <v>-0.01612564150059639</v>
       </c>
       <c r="E6">
-        <v>-0.09564215642153537</v>
+        <v>0.109947230697103</v>
       </c>
       <c r="F6">
-        <v>0.02103234602993202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02929621903936178</v>
+      </c>
+      <c r="G6">
+        <v>-0.04958216805022159</v>
+      </c>
+      <c r="H6">
+        <v>-0.03631803915901775</v>
+      </c>
+      <c r="I6">
+        <v>-0.06387774632770138</v>
+      </c>
+      <c r="J6">
+        <v>-0.01674478526758933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01679488051047234</v>
+        <v>0.007547840200106052</v>
       </c>
       <c r="C7">
-        <v>-0.05172471618806641</v>
+        <v>-0.06671634861798643</v>
       </c>
       <c r="D7">
-        <v>0.02820022210933738</v>
+        <v>-0.009590346382521465</v>
       </c>
       <c r="E7">
-        <v>-0.06232498134205466</v>
+        <v>0.04310681600013363</v>
       </c>
       <c r="F7">
-        <v>-0.001102679081034732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.016208004649221</v>
+      </c>
+      <c r="G7">
+        <v>-0.06715798097025046</v>
+      </c>
+      <c r="H7">
+        <v>-0.0843148908790092</v>
+      </c>
+      <c r="I7">
+        <v>-0.01720736480678214</v>
+      </c>
+      <c r="J7">
+        <v>0.03426407455951642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01592919489465454</v>
+        <v>-0.009544412925575924</v>
       </c>
       <c r="C8">
-        <v>-0.07991317382695208</v>
+        <v>-0.07304688362567664</v>
       </c>
       <c r="D8">
-        <v>0.05513114647151212</v>
+        <v>-0.03646275362307419</v>
       </c>
       <c r="E8">
-        <v>-0.1244940381494638</v>
+        <v>0.08686260787044206</v>
       </c>
       <c r="F8">
-        <v>-0.09008837138257735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02912757599407602</v>
+      </c>
+      <c r="G8">
+        <v>0.05128223638534367</v>
+      </c>
+      <c r="H8">
+        <v>-0.0312068889714155</v>
+      </c>
+      <c r="I8">
+        <v>-0.008576510168070501</v>
+      </c>
+      <c r="J8">
+        <v>-0.008739905387140194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.01013896783470153</v>
+        <v>0.008833616171355101</v>
       </c>
       <c r="C9">
-        <v>-0.1297176896952419</v>
+        <v>-0.1171779615627463</v>
       </c>
       <c r="D9">
-        <v>0.03858383286019555</v>
+        <v>-0.02594517192181147</v>
       </c>
       <c r="E9">
-        <v>-0.07029624243930881</v>
+        <v>0.05445927971075666</v>
       </c>
       <c r="F9">
-        <v>0.02789129432470553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.009361776445520257</v>
+      </c>
+      <c r="G9">
+        <v>-0.006631867344920125</v>
+      </c>
+      <c r="H9">
+        <v>-0.1033178865038708</v>
+      </c>
+      <c r="I9">
+        <v>-0.03709514280301453</v>
+      </c>
+      <c r="J9">
+        <v>0.04966173014454144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2661610169904978</v>
+        <v>0.2522315880348992</v>
       </c>
       <c r="C10">
-        <v>0.0909593429865552</v>
+        <v>0.08546012585560399</v>
       </c>
       <c r="D10">
-        <v>0.02484598031532094</v>
+        <v>-0.004534399595642756</v>
       </c>
       <c r="E10">
-        <v>0.01321871632782132</v>
+        <v>0.01586232175762074</v>
       </c>
       <c r="F10">
-        <v>-0.01497004825327597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01028901841254187</v>
+      </c>
+      <c r="G10">
+        <v>-0.00817347249408106</v>
+      </c>
+      <c r="H10">
+        <v>-0.02509907917846311</v>
+      </c>
+      <c r="I10">
+        <v>0.1842372908638972</v>
+      </c>
+      <c r="J10">
+        <v>0.0160803243434652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.005217490000727499</v>
+        <v>0.01143571517412569</v>
       </c>
       <c r="C11">
-        <v>-0.06387602703500948</v>
+        <v>-0.07977608405203031</v>
       </c>
       <c r="D11">
-        <v>0.01221142365347755</v>
+        <v>-0.02409600610973679</v>
       </c>
       <c r="E11">
-        <v>-0.04107257296683772</v>
+        <v>0.01535265580768663</v>
       </c>
       <c r="F11">
-        <v>0.06702294283735487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006783973563986146</v>
+      </c>
+      <c r="G11">
+        <v>-0.0338830036505369</v>
+      </c>
+      <c r="H11">
+        <v>-0.02933704046517468</v>
+      </c>
+      <c r="I11">
+        <v>0.0294974684964073</v>
+      </c>
+      <c r="J11">
+        <v>-0.01539941829625972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.005602324175912532</v>
+        <v>0.01268263639469119</v>
       </c>
       <c r="C12">
-        <v>-0.06134841840221773</v>
+        <v>-0.06304893462133221</v>
       </c>
       <c r="D12">
-        <v>0.004575752638555129</v>
+        <v>-0.01356771326125654</v>
       </c>
       <c r="E12">
-        <v>-0.03223817174615536</v>
+        <v>0.01436658884536536</v>
       </c>
       <c r="F12">
-        <v>0.05201471621195913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02426599168443309</v>
+      </c>
+      <c r="G12">
+        <v>-0.03379514132237819</v>
+      </c>
+      <c r="H12">
+        <v>-0.03018278550587261</v>
+      </c>
+      <c r="I12">
+        <v>0.01639840779463259</v>
+      </c>
+      <c r="J12">
+        <v>-0.001090054120288255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.005854409503090627</v>
+        <v>0.0009397609558510508</v>
       </c>
       <c r="C13">
-        <v>-0.09664966281534512</v>
+        <v>-0.1108311632456333</v>
       </c>
       <c r="D13">
-        <v>0.05354725820831094</v>
+        <v>-0.01936435682299179</v>
       </c>
       <c r="E13">
-        <v>-0.1371903578320352</v>
+        <v>0.1475276414091978</v>
       </c>
       <c r="F13">
-        <v>0.117385889285052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1087262162097415</v>
+      </c>
+      <c r="G13">
+        <v>-0.08056706534260942</v>
+      </c>
+      <c r="H13">
+        <v>-0.06973366173894142</v>
+      </c>
+      <c r="I13">
+        <v>0.1735249126339679</v>
+      </c>
+      <c r="J13">
+        <v>0.03331593114232709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-2.068068492349232e-05</v>
+        <v>0.01129864492311369</v>
       </c>
       <c r="C14">
-        <v>-0.05769458491756747</v>
+        <v>-0.07492346765939065</v>
       </c>
       <c r="D14">
-        <v>0.03278135607530994</v>
+        <v>-0.02873333837306032</v>
       </c>
       <c r="E14">
-        <v>-0.05345208749042914</v>
+        <v>0.07758877134385837</v>
       </c>
       <c r="F14">
-        <v>0.03192528907375507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04092461540350668</v>
+      </c>
+      <c r="G14">
+        <v>-0.09795393472089167</v>
+      </c>
+      <c r="H14">
+        <v>-0.1822494607090608</v>
+      </c>
+      <c r="I14">
+        <v>0.0649070697274803</v>
+      </c>
+      <c r="J14">
+        <v>-0.1478740982227085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0008479112607519642</v>
+        <v>-0.001289685563715851</v>
       </c>
       <c r="C15">
-        <v>-0.07498473105490971</v>
+        <v>-0.07231420790206879</v>
       </c>
       <c r="D15">
-        <v>0.04893536690220609</v>
+        <v>-0.01879185268337699</v>
       </c>
       <c r="E15">
-        <v>-0.09682612913539722</v>
+        <v>0.06349823682275942</v>
       </c>
       <c r="F15">
-        <v>0.02325326679194342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.004531369472697396</v>
+      </c>
+      <c r="G15">
+        <v>-0.04313285885119517</v>
+      </c>
+      <c r="H15">
+        <v>-0.06395022925098946</v>
+      </c>
+      <c r="I15">
+        <v>0.02109017817902172</v>
+      </c>
+      <c r="J15">
+        <v>-0.05146568587288475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.009583227720665988</v>
+        <v>0.01202436304725047</v>
       </c>
       <c r="C16">
-        <v>-0.05986903489837465</v>
+        <v>-0.0660932070141083</v>
       </c>
       <c r="D16">
-        <v>0.01117086590724505</v>
+        <v>-0.01636394602072256</v>
       </c>
       <c r="E16">
-        <v>-0.02870655353017012</v>
+        <v>0.009369928391349589</v>
       </c>
       <c r="F16">
-        <v>0.05552245431537596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.006157702387955479</v>
+      </c>
+      <c r="G16">
+        <v>-0.03007679884859989</v>
+      </c>
+      <c r="H16">
+        <v>-0.02764955196740872</v>
+      </c>
+      <c r="I16">
+        <v>0.01230976119028167</v>
+      </c>
+      <c r="J16">
+        <v>-0.001862314044754843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.00385643494392396</v>
+        <v>0.007384584169541567</v>
       </c>
       <c r="C20">
-        <v>-0.0729296901113331</v>
+        <v>-0.08552758799990147</v>
       </c>
       <c r="D20">
-        <v>0.04339588042558302</v>
+        <v>-0.00493384880326069</v>
       </c>
       <c r="E20">
-        <v>-0.05904715372254274</v>
+        <v>0.03347171239439467</v>
       </c>
       <c r="F20">
-        <v>0.09208922124720022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01299964104593682</v>
+      </c>
+      <c r="G20">
+        <v>-0.07532561277549547</v>
+      </c>
+      <c r="H20">
+        <v>-0.06236074852437989</v>
+      </c>
+      <c r="I20">
+        <v>-0.001215574510225531</v>
+      </c>
+      <c r="J20">
+        <v>0.006528381674589081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.00157445786369711</v>
+        <v>0.008006026930691676</v>
       </c>
       <c r="C21">
-        <v>-0.09455282884108562</v>
+        <v>-0.08579381613174707</v>
       </c>
       <c r="D21">
-        <v>0.07888267379694798</v>
+        <v>-0.009824047267162128</v>
       </c>
       <c r="E21">
-        <v>-0.02459776549088386</v>
+        <v>0.06580198503855135</v>
       </c>
       <c r="F21">
-        <v>-0.01005660641263226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07700152850445366</v>
+      </c>
+      <c r="G21">
+        <v>-0.007443842105944426</v>
+      </c>
+      <c r="H21">
+        <v>-0.1521931307565095</v>
+      </c>
+      <c r="I21">
+        <v>0.05729533520000851</v>
+      </c>
+      <c r="J21">
+        <v>0.002545537288653634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01054628812247737</v>
+        <v>-0.01523699895888267</v>
       </c>
       <c r="C22">
-        <v>-0.1362982093415994</v>
+        <v>-0.1470693515042749</v>
       </c>
       <c r="D22">
-        <v>0.2839027772843202</v>
+        <v>0.010397605411971</v>
       </c>
       <c r="E22">
-        <v>-0.1587469471813304</v>
+        <v>0.4102870042164631</v>
       </c>
       <c r="F22">
-        <v>-0.2176569055708355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.180461652821309</v>
+      </c>
+      <c r="G22">
+        <v>0.23999404380433</v>
+      </c>
+      <c r="H22">
+        <v>0.3572934642609177</v>
+      </c>
+      <c r="I22">
+        <v>0.1301597531365506</v>
+      </c>
+      <c r="J22">
+        <v>-0.1410633037463314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01102763062242777</v>
+        <v>-0.01150244211566659</v>
       </c>
       <c r="C23">
-        <v>-0.1379293771801963</v>
+        <v>-0.1514462010318382</v>
       </c>
       <c r="D23">
-        <v>0.2823393187850586</v>
+        <v>0.0122436469244726</v>
       </c>
       <c r="E23">
-        <v>-0.1566457599884991</v>
+        <v>0.4006037094989388</v>
       </c>
       <c r="F23">
-        <v>-0.2169018820564818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.1721548325790292</v>
+      </c>
+      <c r="G23">
+        <v>0.232242182819823</v>
+      </c>
+      <c r="H23">
+        <v>0.3338669954198287</v>
+      </c>
+      <c r="I23">
+        <v>0.1304243570452399</v>
+      </c>
+      <c r="J23">
+        <v>-0.1276992545639057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.001178379544669296</v>
+        <v>0.01199861813811457</v>
       </c>
       <c r="C24">
-        <v>-0.07665420839825382</v>
+        <v>-0.07695593010831087</v>
       </c>
       <c r="D24">
-        <v>0.002597232894352228</v>
+        <v>-0.02866389080960165</v>
       </c>
       <c r="E24">
-        <v>-0.0501205496987962</v>
+        <v>0.01716638218498475</v>
       </c>
       <c r="F24">
-        <v>0.0554802223128413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0003801711685050121</v>
+      </c>
+      <c r="G24">
+        <v>-0.03687544903524912</v>
+      </c>
+      <c r="H24">
+        <v>-0.04149485398265402</v>
+      </c>
+      <c r="I24">
+        <v>0.01429043732897595</v>
+      </c>
+      <c r="J24">
+        <v>-0.004880809048561461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.009471415597203707</v>
+        <v>0.01839865645216538</v>
       </c>
       <c r="C25">
-        <v>-0.0726100597160895</v>
+        <v>-0.07529177610649777</v>
       </c>
       <c r="D25">
-        <v>0.006171010516259144</v>
+        <v>-0.01912692273082794</v>
       </c>
       <c r="E25">
-        <v>-0.0244245186798357</v>
+        <v>0.01175623823051375</v>
       </c>
       <c r="F25">
-        <v>0.05538032492599502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.003580975859955024</v>
+      </c>
+      <c r="G25">
+        <v>-0.03036884571470538</v>
+      </c>
+      <c r="H25">
+        <v>-0.0294532646244747</v>
+      </c>
+      <c r="I25">
+        <v>0.03640862459809202</v>
+      </c>
+      <c r="J25">
+        <v>-0.01381063241030549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.004613280176122721</v>
+        <v>0.0174997166776206</v>
       </c>
       <c r="C26">
-        <v>-0.05420542437948233</v>
+        <v>-0.06332391749243237</v>
       </c>
       <c r="D26">
-        <v>0.01131279344437152</v>
+        <v>-0.04690203019003904</v>
       </c>
       <c r="E26">
-        <v>-0.05928669036364718</v>
+        <v>0.02139378285052587</v>
       </c>
       <c r="F26">
-        <v>0.01799409818211986</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01148568290349174</v>
+      </c>
+      <c r="G26">
+        <v>-0.02681248841284678</v>
+      </c>
+      <c r="H26">
+        <v>-0.115675336701028</v>
+      </c>
+      <c r="I26">
+        <v>-0.02929819688244959</v>
+      </c>
+      <c r="J26">
+        <v>0.06864869919046977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3456779020701515</v>
+        <v>0.3196473347928401</v>
       </c>
       <c r="C28">
-        <v>0.1011175507139067</v>
+        <v>0.1054990720738627</v>
       </c>
       <c r="D28">
-        <v>0.01427685099318201</v>
+        <v>0.01829373238313451</v>
       </c>
       <c r="E28">
-        <v>0.04906569237615818</v>
+        <v>0.01383718033238311</v>
       </c>
       <c r="F28">
-        <v>-0.03257843205645939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04313126002181794</v>
+      </c>
+      <c r="G28">
+        <v>0.08642291372867082</v>
+      </c>
+      <c r="H28">
+        <v>-0.0813141877122322</v>
+      </c>
+      <c r="I28">
+        <v>0.09185746539540279</v>
+      </c>
+      <c r="J28">
+        <v>0.1266113316795709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.001464334306396394</v>
+        <v>0.006224117992141899</v>
       </c>
       <c r="C29">
-        <v>-0.05759720745782533</v>
+        <v>-0.07874980429293937</v>
       </c>
       <c r="D29">
-        <v>0.05216859668625844</v>
+        <v>-0.028451905534938</v>
       </c>
       <c r="E29">
-        <v>-0.09270283785104615</v>
+        <v>0.1225991805121133</v>
       </c>
       <c r="F29">
-        <v>0.07146565414391294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.05423168938671659</v>
+      </c>
+      <c r="G29">
+        <v>-0.1552914671911453</v>
+      </c>
+      <c r="H29">
+        <v>-0.2573703504441059</v>
+      </c>
+      <c r="I29">
+        <v>0.09519142338910788</v>
+      </c>
+      <c r="J29">
+        <v>-0.2223792366895783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01809069266894886</v>
+        <v>0.0191421800771638</v>
       </c>
       <c r="C30">
-        <v>-0.1774960439582538</v>
+        <v>-0.1560549807458248</v>
       </c>
       <c r="D30">
-        <v>0.03785976887230539</v>
+        <v>-0.04146300605575525</v>
       </c>
       <c r="E30">
-        <v>-0.09133936849857464</v>
+        <v>0.06809123106904376</v>
       </c>
       <c r="F30">
-        <v>-0.01017000801021647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02116695740191928</v>
+      </c>
+      <c r="G30">
+        <v>0.009096513933663312</v>
+      </c>
+      <c r="H30">
+        <v>-0.03386072280357046</v>
+      </c>
+      <c r="I30">
+        <v>-0.06030670564990309</v>
+      </c>
+      <c r="J30">
+        <v>0.06638010566858003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.00719354083093739</v>
+        <v>0.00683693680530755</v>
       </c>
       <c r="C31">
-        <v>-0.09736679226516817</v>
+        <v>-0.09624162655127819</v>
       </c>
       <c r="D31">
-        <v>-0.03740296606031746</v>
+        <v>-0.03369341207721119</v>
       </c>
       <c r="E31">
-        <v>0.00716134016011908</v>
+        <v>-0.01606523631206003</v>
       </c>
       <c r="F31">
-        <v>-0.0358229757498648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.002597214727827803</v>
+      </c>
+      <c r="G31">
+        <v>0.03330488955056784</v>
+      </c>
+      <c r="H31">
+        <v>-0.04871359853774815</v>
+      </c>
+      <c r="I31">
+        <v>0.05355665431166205</v>
+      </c>
+      <c r="J31">
+        <v>-0.0147576757494793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03479229479075856</v>
+        <v>0.02626522938509659</v>
       </c>
       <c r="C32">
-        <v>-0.08190910048709965</v>
+        <v>-0.0697853565294565</v>
       </c>
       <c r="D32">
-        <v>0.08990149670088976</v>
+        <v>-0.00817883738796641</v>
       </c>
       <c r="E32">
-        <v>-0.1051630470893894</v>
+        <v>0.1223923059924734</v>
       </c>
       <c r="F32">
-        <v>-0.00908717197262752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04098031772133867</v>
+      </c>
+      <c r="G32">
+        <v>-0.005932640194699865</v>
+      </c>
+      <c r="H32">
+        <v>-0.1043771377687079</v>
+      </c>
+      <c r="I32">
+        <v>0.1697243344076933</v>
+      </c>
+      <c r="J32">
+        <v>0.1536228124369535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.004828914587746771</v>
+        <v>0.01085551868612028</v>
       </c>
       <c r="C33">
-        <v>-0.09382188388405381</v>
+        <v>-0.1099770369416383</v>
       </c>
       <c r="D33">
-        <v>0.01350321608853494</v>
+        <v>-0.02532289059961317</v>
       </c>
       <c r="E33">
-        <v>-0.06288944338715408</v>
+        <v>0.0456737176974241</v>
       </c>
       <c r="F33">
-        <v>0.02813292871371957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>8.106288085129411e-06</v>
+      </c>
+      <c r="G33">
+        <v>-0.03674526759922697</v>
+      </c>
+      <c r="H33">
+        <v>-0.05478115053376783</v>
+      </c>
+      <c r="I33">
+        <v>0.02759569719126508</v>
+      </c>
+      <c r="J33">
+        <v>0.003029269661601788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.002062548571732978</v>
+        <v>0.01318307537313261</v>
       </c>
       <c r="C34">
-        <v>-0.0587262198692052</v>
+        <v>-0.05623776252718624</v>
       </c>
       <c r="D34">
-        <v>-0.00195319061545261</v>
+        <v>-0.0165316351437522</v>
       </c>
       <c r="E34">
-        <v>-0.02335023911702401</v>
+        <v>0.004349567081956311</v>
       </c>
       <c r="F34">
-        <v>0.03963754443499242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01130001703003545</v>
+      </c>
+      <c r="G34">
+        <v>-0.02593975700382927</v>
+      </c>
+      <c r="H34">
+        <v>-0.002528921876723879</v>
+      </c>
+      <c r="I34">
+        <v>0.03012251987126686</v>
+      </c>
+      <c r="J34">
+        <v>0.003620866611076671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.002123310445661809</v>
+        <v>0.006819270616440534</v>
       </c>
       <c r="C35">
-        <v>-0.01027157849241933</v>
+        <v>-0.03691908923513049</v>
       </c>
       <c r="D35">
-        <v>0.008152977022673284</v>
+        <v>-0.00800495656098566</v>
       </c>
       <c r="E35">
-        <v>-0.01232062603209661</v>
+        <v>0.03940130943326665</v>
       </c>
       <c r="F35">
-        <v>0.01535156480179048</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01216144184260192</v>
+      </c>
+      <c r="G35">
+        <v>-0.06543068645019945</v>
+      </c>
+      <c r="H35">
+        <v>-0.124462364609859</v>
+      </c>
+      <c r="I35">
+        <v>0.1017887139334043</v>
+      </c>
+      <c r="J35">
+        <v>-0.1384552323607173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.001901603207921688</v>
+        <v>0.009082363857654657</v>
       </c>
       <c r="C36">
-        <v>-0.04590021208326152</v>
+        <v>-0.04965144639383859</v>
       </c>
       <c r="D36">
-        <v>0.01047147736655241</v>
+        <v>-0.03395833377709565</v>
       </c>
       <c r="E36">
-        <v>-0.0681927688383404</v>
+        <v>0.0348945935782402</v>
       </c>
       <c r="F36">
-        <v>0.01562434128604738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.00483603369372605</v>
+      </c>
+      <c r="G36">
+        <v>-0.02450198373650185</v>
+      </c>
+      <c r="H36">
+        <v>-0.06665160557654548</v>
+      </c>
+      <c r="I36">
+        <v>-0.003627166067747536</v>
+      </c>
+      <c r="J36">
+        <v>0.02823643326417971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01438144203591101</v>
+        <v>0.00946184010042787</v>
       </c>
       <c r="C38">
-        <v>-0.04980193051942768</v>
+        <v>-0.06442142520496899</v>
       </c>
       <c r="D38">
-        <v>0.02410842255020489</v>
+        <v>-0.02291582428830688</v>
       </c>
       <c r="E38">
-        <v>-0.06041066305224209</v>
+        <v>0.04213685845275644</v>
       </c>
       <c r="F38">
-        <v>0.00065485581246823</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04410857599816155</v>
+      </c>
+      <c r="G38">
+        <v>-0.02243376157038845</v>
+      </c>
+      <c r="H38">
+        <v>-0.05696573969729068</v>
+      </c>
+      <c r="I38">
+        <v>0.049555004069593</v>
+      </c>
+      <c r="J38">
+        <v>-0.007554388948864796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.002942066074834768</v>
+        <v>0.008497430709116091</v>
       </c>
       <c r="C39">
-        <v>-0.135414488821075</v>
+        <v>-0.132002643368973</v>
       </c>
       <c r="D39">
-        <v>0.02562315011484334</v>
+        <v>-0.04105481312776841</v>
       </c>
       <c r="E39">
-        <v>-0.06745182315093474</v>
+        <v>0.02787448569384427</v>
       </c>
       <c r="F39">
-        <v>0.07434215159478523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01943035595489936</v>
+      </c>
+      <c r="G39">
+        <v>-0.05814167188486149</v>
+      </c>
+      <c r="H39">
+        <v>-0.03843093532681793</v>
+      </c>
+      <c r="I39">
+        <v>-0.02079310157271346</v>
+      </c>
+      <c r="J39">
+        <v>-0.009205230061050658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.007672399100553948</v>
+        <v>0.008732498591939411</v>
       </c>
       <c r="C40">
-        <v>-0.0315545657496081</v>
+        <v>-0.06095206064896894</v>
       </c>
       <c r="D40">
-        <v>0.04537496111087014</v>
+        <v>-0.02145831776714398</v>
       </c>
       <c r="E40">
-        <v>-0.1305023994479619</v>
+        <v>0.1200048187174361</v>
       </c>
       <c r="F40">
-        <v>0.02636907217102624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02671423989424364</v>
+      </c>
+      <c r="G40">
+        <v>-0.1177635920509791</v>
+      </c>
+      <c r="H40">
+        <v>0.01667910266190968</v>
+      </c>
+      <c r="I40">
+        <v>0.1525483470511302</v>
+      </c>
+      <c r="J40">
+        <v>-0.1504102410264593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.006529682668445783</v>
+        <v>0.01859499111372705</v>
       </c>
       <c r="C41">
-        <v>-0.020124466202598</v>
+        <v>-0.04834358500710904</v>
       </c>
       <c r="D41">
-        <v>-0.002929674052224427</v>
+        <v>-0.009959068993635333</v>
       </c>
       <c r="E41">
-        <v>0.01160870901436713</v>
+        <v>-0.004968525334503514</v>
       </c>
       <c r="F41">
-        <v>-0.01286404909377073</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005382839082750121</v>
+      </c>
+      <c r="G41">
+        <v>-0.01109902394805241</v>
+      </c>
+      <c r="H41">
+        <v>-0.02728589168549989</v>
+      </c>
+      <c r="I41">
+        <v>0.06968042414351652</v>
+      </c>
+      <c r="J41">
+        <v>-0.02773852682028155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.0006486221469814833</v>
+        <v>0.01179654234648012</v>
       </c>
       <c r="C43">
-        <v>-0.01596794236108039</v>
+        <v>-0.04215420201804675</v>
       </c>
       <c r="D43">
-        <v>0.01234231884822692</v>
+        <v>-0.01893888697567495</v>
       </c>
       <c r="E43">
-        <v>-0.03057163378436436</v>
+        <v>0.01634829071287498</v>
       </c>
       <c r="F43">
-        <v>0.02457179278106605</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01056244645654587</v>
+      </c>
+      <c r="G43">
+        <v>-0.02844887724405823</v>
+      </c>
+      <c r="H43">
+        <v>-0.04300546193959394</v>
+      </c>
+      <c r="I43">
+        <v>0.03390073291016796</v>
+      </c>
+      <c r="J43">
+        <v>-0.03658423641378224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01621475729709027</v>
+        <v>0.005300327758878888</v>
       </c>
       <c r="C44">
-        <v>-0.0783302613805287</v>
+        <v>-0.08522041114707429</v>
       </c>
       <c r="D44">
-        <v>0.06797341740122362</v>
+        <v>-0.03699627006884439</v>
       </c>
       <c r="E44">
-        <v>-0.09788798366163654</v>
+        <v>0.09250472614075042</v>
       </c>
       <c r="F44">
-        <v>0.02107038191465184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0118339298920283</v>
+      </c>
+      <c r="G44">
+        <v>-0.02999330084414781</v>
+      </c>
+      <c r="H44">
+        <v>-0.03247592601854484</v>
+      </c>
+      <c r="I44">
+        <v>-0.0640555515364146</v>
+      </c>
+      <c r="J44">
+        <v>0.01229181406979632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.00593933106690841</v>
+        <v>-0.0004562364469636144</v>
       </c>
       <c r="C46">
-        <v>-0.06278707866167949</v>
+        <v>-0.0669779869504125</v>
       </c>
       <c r="D46">
-        <v>0.03200974203844113</v>
+        <v>-0.01742764843251639</v>
       </c>
       <c r="E46">
-        <v>-0.05547814083513559</v>
+        <v>0.0393571111269814</v>
       </c>
       <c r="F46">
-        <v>0.04753960575563388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006444965073253347</v>
+      </c>
+      <c r="G46">
+        <v>-0.0618496741077691</v>
+      </c>
+      <c r="H46">
+        <v>-0.1104359878498359</v>
+      </c>
+      <c r="I46">
+        <v>0.04634815392386784</v>
+      </c>
+      <c r="J46">
+        <v>-0.08691149597702837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.01640080050450362</v>
+        <v>0.02405209643136681</v>
       </c>
       <c r="C47">
-        <v>-0.1090298545553272</v>
+        <v>-0.09531616361191507</v>
       </c>
       <c r="D47">
-        <v>-0.02876810752429678</v>
+        <v>-0.03172610383071278</v>
       </c>
       <c r="E47">
-        <v>0.03237245621460379</v>
+        <v>-0.01608398927027322</v>
       </c>
       <c r="F47">
-        <v>-0.02996617593717451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.00185218316715852</v>
+      </c>
+      <c r="G47">
+        <v>0.006745492683432137</v>
+      </c>
+      <c r="H47">
+        <v>-0.08121541932325937</v>
+      </c>
+      <c r="I47">
+        <v>0.03156381682482576</v>
+      </c>
+      <c r="J47">
+        <v>-0.009067144322713071</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.009904338123721337</v>
+        <v>0.01563828687356459</v>
       </c>
       <c r="C48">
-        <v>-0.0519033446139674</v>
+        <v>-0.05709593087091561</v>
       </c>
       <c r="D48">
-        <v>-0.01263054921190797</v>
+        <v>-0.04503365838070997</v>
       </c>
       <c r="E48">
-        <v>-0.07220477541356841</v>
+        <v>0.02575830894593655</v>
       </c>
       <c r="F48">
-        <v>0.02042274757915982</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.00403165112798608</v>
+      </c>
+      <c r="G48">
+        <v>-0.02701988666537578</v>
+      </c>
+      <c r="H48">
+        <v>-0.1084738978464956</v>
+      </c>
+      <c r="I48">
+        <v>-0.02188243213391045</v>
+      </c>
+      <c r="J48">
+        <v>0.06608689011676228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006834359702235697</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.01514087959989504</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002509829469985844</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.0227457947275963</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.002490345715623925</v>
+      </c>
+      <c r="G49">
+        <v>-0.01539873902142746</v>
+      </c>
+      <c r="H49">
+        <v>0.01120553744179849</v>
+      </c>
+      <c r="I49">
+        <v>-0.03668506261423814</v>
+      </c>
+      <c r="J49">
+        <v>-0.01368455577097267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.008700871496589319</v>
+        <v>0.01370743059512203</v>
       </c>
       <c r="C50">
-        <v>-0.09402372713406355</v>
+        <v>-0.08941001370600098</v>
       </c>
       <c r="D50">
-        <v>-0.01862981335569632</v>
+        <v>-0.01947063060937622</v>
       </c>
       <c r="E50">
-        <v>0.006792210442669855</v>
+        <v>-0.006034050697201579</v>
       </c>
       <c r="F50">
-        <v>-0.04160351725708455</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.009874417736094553</v>
+      </c>
+      <c r="G50">
+        <v>0.02681299279250192</v>
+      </c>
+      <c r="H50">
+        <v>-0.06261745778802995</v>
+      </c>
+      <c r="I50">
+        <v>0.0704446990789637</v>
+      </c>
+      <c r="J50">
+        <v>0.01476411994783664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003262424949157614</v>
+        <v>-0.005955010794651308</v>
       </c>
       <c r="C51">
-        <v>-0.05747984383420952</v>
+        <v>-0.0396851376673674</v>
       </c>
       <c r="D51">
-        <v>0.06566125087398351</v>
+        <v>-0.01161840814365599</v>
       </c>
       <c r="E51">
-        <v>-0.06736828859476141</v>
+        <v>0.04781940957564704</v>
       </c>
       <c r="F51">
-        <v>0.017458683962881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007639128753595873</v>
+      </c>
+      <c r="G51">
+        <v>-0.0289052762621024</v>
+      </c>
+      <c r="H51">
+        <v>-0.08766369470483913</v>
+      </c>
+      <c r="I51">
+        <v>-0.07955771721117819</v>
+      </c>
+      <c r="J51">
+        <v>0.08538214488011865</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.03910336272627489</v>
+        <v>0.05101554455075364</v>
       </c>
       <c r="C53">
-        <v>-0.1609602749117052</v>
+        <v>-0.1453453854758974</v>
       </c>
       <c r="D53">
-        <v>-0.07999337541579879</v>
+        <v>-0.04946342236234252</v>
       </c>
       <c r="E53">
-        <v>0.04269547287697199</v>
+        <v>-0.09030065131392566</v>
       </c>
       <c r="F53">
-        <v>-0.007336937183367571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.000157297398744967</v>
+      </c>
+      <c r="G53">
+        <v>0.05610750890116376</v>
+      </c>
+      <c r="H53">
+        <v>-0.004303635637420423</v>
+      </c>
+      <c r="I53">
+        <v>0.06155734723677184</v>
+      </c>
+      <c r="J53">
+        <v>0.03176998985446801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.00344097021653809</v>
+        <v>0.01227701448144477</v>
       </c>
       <c r="C54">
-        <v>-0.05934048223184614</v>
+        <v>-0.07168449408607144</v>
       </c>
       <c r="D54">
-        <v>0.03724412258644284</v>
+        <v>0.002267645471417293</v>
       </c>
       <c r="E54">
-        <v>-0.02156673575094963</v>
+        <v>0.02127145695695059</v>
       </c>
       <c r="F54">
-        <v>0.01493524850207069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001157607350617265</v>
+      </c>
+      <c r="G54">
+        <v>-0.02863994334016206</v>
+      </c>
+      <c r="H54">
+        <v>-0.07934806293841738</v>
+      </c>
+      <c r="I54">
+        <v>0.01675920611358118</v>
+      </c>
+      <c r="J54">
+        <v>-0.03192964541207818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02408705467429444</v>
+        <v>0.02828612593922636</v>
       </c>
       <c r="C55">
-        <v>-0.1228391776948771</v>
+        <v>-0.1058572535119573</v>
       </c>
       <c r="D55">
-        <v>-0.07384996780854139</v>
+        <v>-0.04842379231083892</v>
       </c>
       <c r="E55">
-        <v>0.006850965793246239</v>
+        <v>-0.07083937357317092</v>
       </c>
       <c r="F55">
-        <v>-0.01558620202411747</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01520824360072215</v>
+      </c>
+      <c r="G55">
+        <v>0.02776047945849634</v>
+      </c>
+      <c r="H55">
+        <v>-0.01635279586959807</v>
+      </c>
+      <c r="I55">
+        <v>0.0135455831488783</v>
+      </c>
+      <c r="J55">
+        <v>0.01292706972658506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04444037907457944</v>
+        <v>0.04487783821101881</v>
       </c>
       <c r="C56">
-        <v>-0.1926193077339693</v>
+        <v>-0.1736974848519791</v>
       </c>
       <c r="D56">
-        <v>-0.100682339014076</v>
+        <v>-0.06839374636522935</v>
       </c>
       <c r="E56">
-        <v>0.08192660330237518</v>
+        <v>-0.128898436282302</v>
       </c>
       <c r="F56">
-        <v>-0.05553789296915861</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.007933295275138476</v>
+      </c>
+      <c r="G56">
+        <v>0.1140848275984684</v>
+      </c>
+      <c r="H56">
+        <v>0.0004001081875937503</v>
+      </c>
+      <c r="I56">
+        <v>0.01243584125517639</v>
+      </c>
+      <c r="J56">
+        <v>0.04664986682394519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.009646920232609452</v>
+        <v>0.008294009762363479</v>
       </c>
       <c r="C58">
-        <v>-0.1895026766013842</v>
+        <v>-0.1704012934104845</v>
       </c>
       <c r="D58">
-        <v>0.2594133813657117</v>
+        <v>0.006540115630041958</v>
       </c>
       <c r="E58">
-        <v>-0.1350788246352087</v>
+        <v>0.2811117003789983</v>
       </c>
       <c r="F58">
-        <v>-0.1147125668577502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.09022377742390272</v>
+      </c>
+      <c r="G58">
+        <v>0.1634914211188856</v>
+      </c>
+      <c r="H58">
+        <v>-0.03568560527992008</v>
+      </c>
+      <c r="I58">
+        <v>-0.2521874783954359</v>
+      </c>
+      <c r="J58">
+        <v>0.3001742007809521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2663021629103565</v>
+        <v>0.2798387812291692</v>
       </c>
       <c r="C59">
-        <v>0.01448560748413914</v>
+        <v>0.03508759566380616</v>
       </c>
       <c r="D59">
-        <v>0.05108869456229986</v>
+        <v>0.001453672328985901</v>
       </c>
       <c r="E59">
-        <v>-0.0210558706743657</v>
+        <v>0.04847839767745656</v>
       </c>
       <c r="F59">
-        <v>-0.03333112101893857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01832687285573722</v>
+      </c>
+      <c r="G59">
+        <v>0.02483718657917864</v>
+      </c>
+      <c r="H59">
+        <v>0.0285975455149588</v>
+      </c>
+      <c r="I59">
+        <v>0.05440971657214073</v>
+      </c>
+      <c r="J59">
+        <v>0.03463663391458754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1182333316317043</v>
+        <v>0.1471717660255556</v>
       </c>
       <c r="C60">
-        <v>-0.1501335835926388</v>
+        <v>-0.1606947321934658</v>
       </c>
       <c r="D60">
-        <v>-0.06049710226086184</v>
+        <v>-0.03727119309296755</v>
       </c>
       <c r="E60">
-        <v>-0.03023312784150307</v>
+        <v>-0.04108268794227464</v>
       </c>
       <c r="F60">
-        <v>0.2587537071051313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.09662123751208136</v>
+      </c>
+      <c r="G60">
+        <v>-0.2294304541807278</v>
+      </c>
+      <c r="H60">
+        <v>0.2760880365906426</v>
+      </c>
+      <c r="I60">
+        <v>-0.06737893347665672</v>
+      </c>
+      <c r="J60">
+        <v>-0.05144559415445994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.002903257389051832</v>
+        <v>0.01508268070505462</v>
       </c>
       <c r="C61">
-        <v>-0.0967366593383953</v>
+        <v>-0.1055178588769031</v>
       </c>
       <c r="D61">
-        <v>-0.01352599732547403</v>
+        <v>-0.04021031683484555</v>
       </c>
       <c r="E61">
-        <v>-0.04663968392252506</v>
+        <v>0.002860107088255771</v>
       </c>
       <c r="F61">
-        <v>0.07367928105988655</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01187354674407172</v>
+      </c>
+      <c r="G61">
+        <v>-0.05450732125270889</v>
+      </c>
+      <c r="H61">
+        <v>-0.04427759744440617</v>
+      </c>
+      <c r="I61">
+        <v>0.01834613286191814</v>
+      </c>
+      <c r="J61">
+        <v>-0.03078539769484745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006658028300473051</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.005532249608919451</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004864985386483841</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01501177209302066</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.001432763146958801</v>
+      </c>
+      <c r="G62">
+        <v>-0.0186911891139928</v>
+      </c>
+      <c r="H62">
+        <v>-0.01191109041536743</v>
+      </c>
+      <c r="I62">
+        <v>0.001067400393314959</v>
+      </c>
+      <c r="J62">
+        <v>-0.009686325707331767</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.006029312161732999</v>
+        <v>0.01710805440853472</v>
       </c>
       <c r="C63">
-        <v>-0.06337306067210917</v>
+        <v>-0.0754357905384051</v>
       </c>
       <c r="D63">
-        <v>0.009581408858449351</v>
+        <v>-0.04135196733114631</v>
       </c>
       <c r="E63">
-        <v>-0.03403507022753364</v>
+        <v>0.02095172090781593</v>
       </c>
       <c r="F63">
-        <v>0.03910457958785443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.009251929987585502</v>
+      </c>
+      <c r="G63">
+        <v>-0.03640673324955246</v>
+      </c>
+      <c r="H63">
+        <v>-0.05760453216977821</v>
+      </c>
+      <c r="I63">
+        <v>0.03252816311631956</v>
+      </c>
+      <c r="J63">
+        <v>-0.009539843552805358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.006379712575841388</v>
+        <v>0.01412044912692052</v>
       </c>
       <c r="C64">
-        <v>-0.124434795736348</v>
+        <v>-0.1035787817023352</v>
       </c>
       <c r="D64">
-        <v>-0.05721113583917209</v>
+        <v>-0.03204893001950711</v>
       </c>
       <c r="E64">
-        <v>-0.0239731110994357</v>
+        <v>0.00414901429759116</v>
       </c>
       <c r="F64">
-        <v>0.0391858915445522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02858108761845254</v>
+      </c>
+      <c r="G64">
+        <v>-0.02281164322827558</v>
+      </c>
+      <c r="H64">
+        <v>-0.009967430078859642</v>
+      </c>
+      <c r="I64">
+        <v>0.0382678850538606</v>
+      </c>
+      <c r="J64">
+        <v>-0.02084168154765273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01367850537879906</v>
+        <v>0.02420660675957306</v>
       </c>
       <c r="C65">
-        <v>-0.0676419080028933</v>
+        <v>-0.0876947187630682</v>
       </c>
       <c r="D65">
-        <v>0.05298717963126744</v>
+        <v>0.001371481098813172</v>
       </c>
       <c r="E65">
-        <v>-0.05844080878000604</v>
+        <v>0.07062221984322299</v>
       </c>
       <c r="F65">
-        <v>0.06904448882468593</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.009349811602764546</v>
+      </c>
+      <c r="G65">
+        <v>-0.1109875639472507</v>
+      </c>
+      <c r="H65">
+        <v>0.01983676940625004</v>
+      </c>
+      <c r="I65">
+        <v>-0.07289434443658434</v>
+      </c>
+      <c r="J65">
+        <v>-0.009121086815754589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.00470345458092668</v>
+        <v>0.006024389473240029</v>
       </c>
       <c r="C66">
-        <v>-0.1572432742583211</v>
+        <v>-0.1602444960694698</v>
       </c>
       <c r="D66">
-        <v>0.06165659645993872</v>
+        <v>-0.0262724578373009</v>
       </c>
       <c r="E66">
-        <v>-0.08167020756532481</v>
+        <v>0.05108992122049459</v>
       </c>
       <c r="F66">
-        <v>0.06813550506384955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01083592970256103</v>
+      </c>
+      <c r="G66">
+        <v>-0.0412473723109847</v>
+      </c>
+      <c r="H66">
+        <v>-0.0413541314788933</v>
+      </c>
+      <c r="I66">
+        <v>-0.0180269747776137</v>
+      </c>
+      <c r="J66">
+        <v>-0.005446214554115961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.02003828957674969</v>
+        <v>0.01931430215938018</v>
       </c>
       <c r="C67">
-        <v>-0.04431208185939329</v>
+        <v>-0.05796666783318966</v>
       </c>
       <c r="D67">
-        <v>-0.02641123176990727</v>
+        <v>-0.03172112304536805</v>
       </c>
       <c r="E67">
-        <v>-0.03732211298534238</v>
+        <v>0.003713858966088228</v>
       </c>
       <c r="F67">
-        <v>0.01186454858165984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03157587963258715</v>
+      </c>
+      <c r="G67">
+        <v>-0.04389189537104426</v>
+      </c>
+      <c r="H67">
+        <v>-0.03325176493825786</v>
+      </c>
+      <c r="I67">
+        <v>0.05483708948871604</v>
+      </c>
+      <c r="J67">
+        <v>-0.02204180059031916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2614126159044399</v>
+        <v>0.2879961347369928</v>
       </c>
       <c r="C68">
-        <v>0.03439478876788288</v>
+        <v>0.04101354684734629</v>
       </c>
       <c r="D68">
-        <v>0.0492778795238484</v>
+        <v>0.02536596951918807</v>
       </c>
       <c r="E68">
-        <v>-0.01942938099154562</v>
+        <v>0.06381752430860177</v>
       </c>
       <c r="F68">
-        <v>-0.06878444736417286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01626493517154106</v>
+      </c>
+      <c r="G68">
+        <v>0.04476331877977342</v>
+      </c>
+      <c r="H68">
+        <v>0.02579578036412762</v>
+      </c>
+      <c r="I68">
+        <v>0.04846242997267174</v>
+      </c>
+      <c r="J68">
+        <v>0.02076299566177167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01341945327515203</v>
+        <v>0.009019315578819768</v>
       </c>
       <c r="C69">
-        <v>-0.1038060147160487</v>
+        <v>-0.07824726990153509</v>
       </c>
       <c r="D69">
-        <v>-0.05573471075911855</v>
+        <v>-0.02642744003306486</v>
       </c>
       <c r="E69">
-        <v>-0.01496062318869105</v>
+        <v>-0.01844100247799738</v>
       </c>
       <c r="F69">
-        <v>-0.03600686803409318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.001826441094968783</v>
+      </c>
+      <c r="G69">
+        <v>-0.007395092127358244</v>
+      </c>
+      <c r="H69">
+        <v>-0.05583301354946636</v>
+      </c>
+      <c r="I69">
+        <v>0.03705055476871424</v>
+      </c>
+      <c r="J69">
+        <v>0.024898675931927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2792449353168303</v>
+        <v>0.277066786908727</v>
       </c>
       <c r="C71">
-        <v>0.04461628846248153</v>
+        <v>0.06438007499998152</v>
       </c>
       <c r="D71">
-        <v>0.03575161945864697</v>
+        <v>0.01381183632496924</v>
       </c>
       <c r="E71">
-        <v>-0.006495948170122058</v>
+        <v>0.0386818166196931</v>
       </c>
       <c r="F71">
-        <v>0.0157153251088676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03410462410728793</v>
+      </c>
+      <c r="G71">
+        <v>0.005592817497697896</v>
+      </c>
+      <c r="H71">
+        <v>-0.05395604770453342</v>
+      </c>
+      <c r="I71">
+        <v>0.03654332458322676</v>
+      </c>
+      <c r="J71">
+        <v>0.1371000123771924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05014542218696323</v>
+        <v>0.05790673466374936</v>
       </c>
       <c r="C72">
-        <v>-0.1857655526416244</v>
+        <v>-0.1588390906982066</v>
       </c>
       <c r="D72">
-        <v>-0.02339214446764968</v>
+        <v>-0.02154942694067931</v>
       </c>
       <c r="E72">
-        <v>-0.0595572570298426</v>
+        <v>-0.01577138748269953</v>
       </c>
       <c r="F72">
-        <v>0.1272120793965268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.01886232442084616</v>
+      </c>
+      <c r="G72">
+        <v>-0.04157688990384382</v>
+      </c>
+      <c r="H72">
+        <v>0.04219684063768358</v>
+      </c>
+      <c r="I72">
+        <v>-0.03014759366517198</v>
+      </c>
+      <c r="J72">
+        <v>-0.02163560890026881</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.1009432298292813</v>
+        <v>0.1508231597442696</v>
       </c>
       <c r="C73">
-        <v>-0.1539243316616013</v>
+        <v>-0.1954904044969906</v>
       </c>
       <c r="D73">
-        <v>-0.1078171038643965</v>
+        <v>-0.06122269255247126</v>
       </c>
       <c r="E73">
-        <v>-0.03270749234610466</v>
+        <v>-0.1066135704778919</v>
       </c>
       <c r="F73">
-        <v>0.3527372741052372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1246399380117299</v>
+      </c>
+      <c r="G73">
+        <v>-0.3772596146319835</v>
+      </c>
+      <c r="H73">
+        <v>0.3355233958494753</v>
+      </c>
+      <c r="I73">
+        <v>-0.05557506878091274</v>
+      </c>
+      <c r="J73">
+        <v>0.1072732089521303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02554405935445449</v>
+        <v>0.03506949270162722</v>
       </c>
       <c r="C74">
-        <v>-0.1178785708997577</v>
+        <v>-0.1144767924350797</v>
       </c>
       <c r="D74">
-        <v>-0.1068718298531041</v>
+        <v>-0.04349793233799516</v>
       </c>
       <c r="E74">
-        <v>0.0445366498811076</v>
+        <v>-0.08482251613754216</v>
       </c>
       <c r="F74">
-        <v>-0.02113266417587913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.002507672068533015</v>
+      </c>
+      <c r="G74">
+        <v>0.03018172874464135</v>
+      </c>
+      <c r="H74">
+        <v>-0.01154391260018334</v>
+      </c>
+      <c r="I74">
+        <v>0.01611313980511062</v>
+      </c>
+      <c r="J74">
+        <v>0.01893176178773801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09255446394411759</v>
+        <v>0.06757764874668916</v>
       </c>
       <c r="C75">
-        <v>-0.208767940505594</v>
+        <v>-0.1938505223562179</v>
       </c>
       <c r="D75">
-        <v>-0.2206060707840578</v>
+        <v>-0.07505401955481243</v>
       </c>
       <c r="E75">
-        <v>0.1535776518958214</v>
+        <v>-0.2323157091334556</v>
       </c>
       <c r="F75">
-        <v>-0.08850696166382331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.08483988978947338</v>
+      </c>
+      <c r="G75">
+        <v>0.1508778541533931</v>
+      </c>
+      <c r="H75">
+        <v>0.02931553853556446</v>
+      </c>
+      <c r="I75">
+        <v>0.100490897429889</v>
+      </c>
+      <c r="J75">
+        <v>0.01653596240662157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.03672872797797489</v>
+        <v>0.03819355076897434</v>
       </c>
       <c r="C76">
-        <v>-0.1444615314106666</v>
+        <v>-0.1408182965103635</v>
       </c>
       <c r="D76">
-        <v>-0.100817776085817</v>
+        <v>-0.06711954849143217</v>
       </c>
       <c r="E76">
-        <v>0.04768808421032893</v>
+        <v>-0.1083959178976548</v>
       </c>
       <c r="F76">
-        <v>0.001483659976155471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.001502056132718483</v>
+      </c>
+      <c r="G76">
+        <v>0.03085832221767633</v>
+      </c>
+      <c r="H76">
+        <v>-0.01051987994482411</v>
+      </c>
+      <c r="I76">
+        <v>0.0427695039373864</v>
+      </c>
+      <c r="J76">
+        <v>0.007972081706576277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.06197142528069912</v>
+        <v>0.03935296685157125</v>
       </c>
       <c r="C77">
-        <v>-0.1817469526980277</v>
+        <v>-0.2807995879450614</v>
       </c>
       <c r="D77">
-        <v>0.5689400163782582</v>
+        <v>0.9425515080947088</v>
       </c>
       <c r="E77">
-        <v>0.712400888685548</v>
+        <v>-0.111229584576278</v>
       </c>
       <c r="F77">
-        <v>0.2376490386143244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.0178466214078745</v>
+      </c>
+      <c r="G77">
+        <v>-0.01228937190996736</v>
+      </c>
+      <c r="H77">
+        <v>-0.04206741233670598</v>
+      </c>
+      <c r="I77">
+        <v>0.009888560802560592</v>
+      </c>
+      <c r="J77">
+        <v>0.0006224283288994402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02692984633161569</v>
+        <v>0.02703480825027618</v>
       </c>
       <c r="C78">
-        <v>-0.1587142276892946</v>
+        <v>-0.1232447075209922</v>
       </c>
       <c r="D78">
-        <v>0.051323513042355</v>
+        <v>-0.07420784925737282</v>
       </c>
       <c r="E78">
-        <v>-0.09568336026595532</v>
+        <v>0.02550714060650268</v>
       </c>
       <c r="F78">
-        <v>-0.143514745347778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.024354740538284</v>
+      </c>
+      <c r="G78">
+        <v>0.08193941700635539</v>
+      </c>
+      <c r="H78">
+        <v>-0.1370546683503089</v>
+      </c>
+      <c r="I78">
+        <v>-0.4592955855054378</v>
+      </c>
+      <c r="J78">
+        <v>0.2202435857968964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05441168301831428</v>
+        <v>0.05835745983045725</v>
       </c>
       <c r="C79">
-        <v>-0.2462224221831812</v>
+        <v>-0.1865353647005774</v>
       </c>
       <c r="D79">
-        <v>-0.1950784195345188</v>
+        <v>-0.06383771458516782</v>
       </c>
       <c r="E79">
-        <v>0.1425501358505811</v>
+        <v>-0.1852620515098036</v>
       </c>
       <c r="F79">
-        <v>-0.1893675099191383</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.008217001810591087</v>
+      </c>
+      <c r="G79">
+        <v>0.2093220688545649</v>
+      </c>
+      <c r="H79">
+        <v>-0.05454397636513848</v>
+      </c>
+      <c r="I79">
+        <v>0.0801029900735198</v>
+      </c>
+      <c r="J79">
+        <v>0.09982811676656561</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01013965118471777</v>
+        <v>0.00990153935550842</v>
       </c>
       <c r="C80">
-        <v>-0.05760232373450544</v>
+        <v>-0.05730505510154032</v>
       </c>
       <c r="D80">
-        <v>0.0004821065526366183</v>
+        <v>-0.03417336575532649</v>
       </c>
       <c r="E80">
-        <v>-0.02745738425183113</v>
+        <v>0.04560556757149573</v>
       </c>
       <c r="F80">
-        <v>0.0286611156963565</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06300053384712126</v>
+      </c>
+      <c r="G80">
+        <v>-0.04664371274924301</v>
+      </c>
+      <c r="H80">
+        <v>0.04312202877784153</v>
+      </c>
+      <c r="I80">
+        <v>0.08124106389297048</v>
+      </c>
+      <c r="J80">
+        <v>-0.009733546716534499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03335146221790353</v>
+        <v>0.0211996332522661</v>
       </c>
       <c r="C81">
-        <v>-0.1243951679896026</v>
+        <v>-0.1146158349230996</v>
       </c>
       <c r="D81">
-        <v>-0.1444533454703398</v>
+        <v>-0.04708566270483525</v>
       </c>
       <c r="E81">
-        <v>0.09768481248277283</v>
+        <v>-0.1048291974093791</v>
       </c>
       <c r="F81">
-        <v>-0.05999137502331534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01171491975871136</v>
+      </c>
+      <c r="G81">
+        <v>0.09369564572918</v>
+      </c>
+      <c r="H81">
+        <v>-0.06207880997950773</v>
+      </c>
+      <c r="I81">
+        <v>0.0943239705614738</v>
+      </c>
+      <c r="J81">
+        <v>0.03770058836349423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05099952131912556</v>
+        <v>0.04730332415053964</v>
       </c>
       <c r="C82">
-        <v>-0.1538021957729016</v>
+        <v>-0.1299723693592653</v>
       </c>
       <c r="D82">
-        <v>-0.1511291825700124</v>
+        <v>-0.07321853566570778</v>
       </c>
       <c r="E82">
-        <v>0.06020977507128586</v>
+        <v>-0.1261007349993293</v>
       </c>
       <c r="F82">
-        <v>-0.01242460816442244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003215292781829976</v>
+      </c>
+      <c r="G82">
+        <v>0.06399747666627886</v>
+      </c>
+      <c r="H82">
+        <v>-0.02618779951323835</v>
+      </c>
+      <c r="I82">
+        <v>0.06291537007750526</v>
+      </c>
+      <c r="J82">
+        <v>0.03885897423575067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.009773458640644652</v>
+        <v>0.002319076024363243</v>
       </c>
       <c r="C83">
-        <v>-0.04812575639634</v>
+        <v>-0.008896880431825944</v>
       </c>
       <c r="D83">
-        <v>0.151710429786089</v>
+        <v>0.03855191314625223</v>
       </c>
       <c r="E83">
-        <v>0.1514444145806448</v>
+        <v>0.135357219839004</v>
       </c>
       <c r="F83">
-        <v>-0.4891678767574047</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.9034561461746544</v>
+      </c>
+      <c r="G83">
+        <v>0.3017663249852072</v>
+      </c>
+      <c r="H83">
+        <v>0.06894444154180232</v>
+      </c>
+      <c r="I83">
+        <v>0.06646783553228303</v>
+      </c>
+      <c r="J83">
+        <v>0.02029522969485795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.001114658144997821</v>
+        <v>-0.001500475721479906</v>
       </c>
       <c r="C84">
-        <v>-0.03347829309639958</v>
+        <v>-0.03515366237484056</v>
       </c>
       <c r="D84">
-        <v>0.03303256432739165</v>
+        <v>-0.055761340896896</v>
       </c>
       <c r="E84">
-        <v>-0.0888528081856102</v>
+        <v>0.07595374005137266</v>
       </c>
       <c r="F84">
-        <v>-0.03827311407321733</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05069161213381992</v>
+      </c>
+      <c r="G84">
+        <v>0.03874690250256106</v>
+      </c>
+      <c r="H84">
+        <v>-0.07783216150421048</v>
+      </c>
+      <c r="I84">
+        <v>-0.007371512168577489</v>
+      </c>
+      <c r="J84">
+        <v>-0.1010666402495578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03359175604143159</v>
+        <v>0.03051303839396483</v>
       </c>
       <c r="C85">
-        <v>-0.1685994348703822</v>
+        <v>-0.1400133736042652</v>
       </c>
       <c r="D85">
-        <v>-0.1559032267215014</v>
+        <v>-0.07557134686690574</v>
       </c>
       <c r="E85">
-        <v>0.1027465864448664</v>
+        <v>-0.1793596923951095</v>
       </c>
       <c r="F85">
-        <v>-0.1354597450027356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.01068673071868703</v>
+      </c>
+      <c r="G85">
+        <v>0.1278315734416456</v>
+      </c>
+      <c r="H85">
+        <v>-0.0151585493730471</v>
+      </c>
+      <c r="I85">
+        <v>0.09970352228113173</v>
+      </c>
+      <c r="J85">
+        <v>0.04402448978784506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0374075473242314</v>
+        <v>0.01994608110459184</v>
       </c>
       <c r="C86">
-        <v>-0.05171479616210223</v>
+        <v>-0.07158461563326209</v>
       </c>
       <c r="D86">
-        <v>0.07365864678928552</v>
+        <v>-0.01405765316433738</v>
       </c>
       <c r="E86">
-        <v>-0.02057542345047076</v>
+        <v>0.06288047698171591</v>
       </c>
       <c r="F86">
-        <v>0.04489032450470155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.04871543920520222</v>
+      </c>
+      <c r="G86">
+        <v>0.06903615942528839</v>
+      </c>
+      <c r="H86">
+        <v>-0.08352963757768192</v>
+      </c>
+      <c r="I86">
+        <v>-0.03453263075184814</v>
+      </c>
+      <c r="J86">
+        <v>0.1900111141146988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03364129967971535</v>
+        <v>0.01782179966503924</v>
       </c>
       <c r="C87">
-        <v>-0.1290480433735026</v>
+        <v>-0.122791856865097</v>
       </c>
       <c r="D87">
-        <v>0.1077774391033305</v>
+        <v>0.005461407321408254</v>
       </c>
       <c r="E87">
-        <v>-0.1010053973866375</v>
+        <v>0.1037919408294577</v>
       </c>
       <c r="F87">
-        <v>-0.0004719306848671853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02634454018115509</v>
+      </c>
+      <c r="G87">
+        <v>0.008859573678520532</v>
+      </c>
+      <c r="H87">
+        <v>-0.02743558584581686</v>
+      </c>
+      <c r="I87">
+        <v>-0.1781805008200832</v>
+      </c>
+      <c r="J87">
+        <v>-0.04266796083668262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01819579518412427</v>
+        <v>0.03455984096770912</v>
       </c>
       <c r="C88">
-        <v>-0.07278223737901898</v>
+        <v>-0.08088422853619204</v>
       </c>
       <c r="D88">
-        <v>-0.07453334460258096</v>
+        <v>-0.03433469152140817</v>
       </c>
       <c r="E88">
-        <v>0.01026274921144742</v>
+        <v>-0.02084004018007001</v>
       </c>
       <c r="F88">
-        <v>0.0281136042759379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005380724441696788</v>
+      </c>
+      <c r="G88">
+        <v>-0.02392621163777255</v>
+      </c>
+      <c r="H88">
+        <v>0.008246572527132602</v>
+      </c>
+      <c r="I88">
+        <v>0.08460523808311758</v>
+      </c>
+      <c r="J88">
+        <v>-0.03164087673340599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.411952938262891</v>
+        <v>0.3937043761403914</v>
       </c>
       <c r="C89">
-        <v>0.09435058882643095</v>
+        <v>0.1109644481953529</v>
       </c>
       <c r="D89">
-        <v>0.02078087007690586</v>
+        <v>0.03984307974275518</v>
       </c>
       <c r="E89">
-        <v>-0.183620618537158</v>
+        <v>0.07132950338298302</v>
       </c>
       <c r="F89">
-        <v>-0.07991240293880975</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.05780129113886964</v>
+      </c>
+      <c r="G89">
+        <v>0.03267285217900722</v>
+      </c>
+      <c r="H89">
+        <v>-0.08754008783666097</v>
+      </c>
+      <c r="I89">
+        <v>-0.4802860136742278</v>
+      </c>
+      <c r="J89">
+        <v>-0.4631468014638498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3205450237717734</v>
+        <v>0.3217923707685683</v>
       </c>
       <c r="C90">
-        <v>0.04277195792230761</v>
+        <v>0.06472592005944613</v>
       </c>
       <c r="D90">
-        <v>0.0326062445171103</v>
+        <v>0.001968655744176877</v>
       </c>
       <c r="E90">
-        <v>0.0007877106163407404</v>
+        <v>0.02828727922974332</v>
       </c>
       <c r="F90">
-        <v>-0.03373095222504961</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.005520097323453781</v>
+      </c>
+      <c r="G90">
+        <v>0.03082425233239515</v>
+      </c>
+      <c r="H90">
+        <v>0.01943671001905883</v>
+      </c>
+      <c r="I90">
+        <v>0.09942330431425546</v>
+      </c>
+      <c r="J90">
+        <v>0.05483898245814771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04038121116064479</v>
+        <v>0.05058990667764345</v>
       </c>
       <c r="C91">
-        <v>-0.1360292160425009</v>
+        <v>-0.1161794643774179</v>
       </c>
       <c r="D91">
-        <v>-0.09142140153255819</v>
+        <v>-0.03801978601716917</v>
       </c>
       <c r="E91">
-        <v>0.06713448137480851</v>
+        <v>-0.09055828553675627</v>
       </c>
       <c r="F91">
-        <v>-0.0627048155035539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03065356508980583</v>
+      </c>
+      <c r="G91">
+        <v>0.07494186839722351</v>
+      </c>
+      <c r="H91">
+        <v>-0.007895259192605055</v>
+      </c>
+      <c r="I91">
+        <v>0.04495045035298161</v>
+      </c>
+      <c r="J91">
+        <v>-0.008392021053668465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.359007722139786</v>
+        <v>0.3522652926349379</v>
       </c>
       <c r="C92">
-        <v>0.09904136823505383</v>
+        <v>0.1152505181474625</v>
       </c>
       <c r="D92">
-        <v>0.04176490435403676</v>
+        <v>0.03555530795867112</v>
       </c>
       <c r="E92">
-        <v>-0.01333200243971776</v>
+        <v>0.06642341313244282</v>
       </c>
       <c r="F92">
-        <v>0.02381267184463862</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09781637242848135</v>
+      </c>
+      <c r="G92">
+        <v>0.01162991733493614</v>
+      </c>
+      <c r="H92">
+        <v>-0.04998351170731216</v>
+      </c>
+      <c r="I92">
+        <v>0.132456309009778</v>
+      </c>
+      <c r="J92">
+        <v>0.08339121875605915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3341512829656805</v>
+        <v>0.3242783074924213</v>
       </c>
       <c r="C93">
-        <v>0.08343676319441284</v>
+        <v>0.1091614404385763</v>
       </c>
       <c r="D93">
-        <v>-0.02919130083173293</v>
+        <v>-0.01045519908195212</v>
       </c>
       <c r="E93">
-        <v>0.007585499782985624</v>
+        <v>-0.002508692574666046</v>
       </c>
       <c r="F93">
-        <v>0.001033959525005254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01505753734092606</v>
+      </c>
+      <c r="G93">
+        <v>0.03266662629747189</v>
+      </c>
+      <c r="H93">
+        <v>-0.03883692509755895</v>
+      </c>
+      <c r="I93">
+        <v>0.06843567850124219</v>
+      </c>
+      <c r="J93">
+        <v>0.09381574324637683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08583327702917858</v>
+        <v>0.0818628380949947</v>
       </c>
       <c r="C94">
-        <v>-0.2179466543640903</v>
+        <v>-0.1940186498436069</v>
       </c>
       <c r="D94">
-        <v>-0.2476509448680164</v>
+        <v>-0.09879018644785052</v>
       </c>
       <c r="E94">
-        <v>0.1543793349604213</v>
+        <v>-0.3114109530719166</v>
       </c>
       <c r="F94">
-        <v>-0.2363716583643362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.05512443308457904</v>
+      </c>
+      <c r="G94">
+        <v>0.3798515045731654</v>
+      </c>
+      <c r="H94">
+        <v>0.05729890109923985</v>
+      </c>
+      <c r="I94">
+        <v>-0.1357502505951158</v>
+      </c>
+      <c r="J94">
+        <v>-0.4183353452057987</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02493220876416646</v>
+        <v>0.03208026888199707</v>
       </c>
       <c r="C95">
-        <v>-0.06631368974511602</v>
+        <v>-0.1104455996902771</v>
       </c>
       <c r="D95">
-        <v>-0.0101085866546766</v>
+        <v>-0.02272591425563155</v>
       </c>
       <c r="E95">
-        <v>-0.01341062477909902</v>
+        <v>0.002291654193805286</v>
       </c>
       <c r="F95">
-        <v>0.1515929139187027</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.006147274262143312</v>
+      </c>
+      <c r="G95">
+        <v>-0.1390871273991016</v>
+      </c>
+      <c r="H95">
+        <v>-0.02933935861397543</v>
+      </c>
+      <c r="I95">
+        <v>0.0583543721600591</v>
+      </c>
+      <c r="J95">
+        <v>-0.1943641419483754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.005617658929407594</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01144133509121078</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02470938855710751</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.01245571104333974</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.009160422400354529</v>
+      </c>
+      <c r="G97">
+        <v>-0.03382934340535092</v>
+      </c>
+      <c r="H97">
+        <v>0.007311699545523937</v>
+      </c>
+      <c r="I97">
+        <v>0.004861069223138416</v>
+      </c>
+      <c r="J97">
+        <v>0.01797235978709712</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.08388708713307071</v>
+        <v>0.1315987850032767</v>
       </c>
       <c r="C98">
-        <v>-0.1519786258424658</v>
+        <v>-0.1680680631966645</v>
       </c>
       <c r="D98">
-        <v>-0.04445796350738886</v>
+        <v>-0.07472422509483753</v>
       </c>
       <c r="E98">
-        <v>-0.04532054251574213</v>
+        <v>-0.07463848027799275</v>
       </c>
       <c r="F98">
-        <v>0.2646653743043246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.08544866829957962</v>
+      </c>
+      <c r="G98">
+        <v>-0.3335570309226297</v>
+      </c>
+      <c r="H98">
+        <v>0.3533316920630416</v>
+      </c>
+      <c r="I98">
+        <v>-0.1277909032100325</v>
+      </c>
+      <c r="J98">
+        <v>0.07448505306866918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.003067980833179199</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0100861587599478</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01287871866331348</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.007468721342448156</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.00915381277511219</v>
+      </c>
+      <c r="G99">
+        <v>0.003597908615023491</v>
+      </c>
+      <c r="H99">
+        <v>-0.04769417283288946</v>
+      </c>
+      <c r="I99">
+        <v>-0.003403363895367605</v>
+      </c>
+      <c r="J99">
+        <v>0.002156286357419766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.0002607089281174223</v>
+        <v>0.006726731336879962</v>
       </c>
       <c r="C101">
-        <v>-0.05630118935781616</v>
+        <v>-0.07744511285746165</v>
       </c>
       <c r="D101">
-        <v>0.05162998915667794</v>
+        <v>-0.02698591563833731</v>
       </c>
       <c r="E101">
-        <v>-0.09113076350881669</v>
+        <v>0.1221799216742241</v>
       </c>
       <c r="F101">
-        <v>0.07149523990400167</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05404966799899244</v>
+      </c>
+      <c r="G101">
+        <v>-0.1546560936196019</v>
+      </c>
+      <c r="H101">
+        <v>-0.2559315891600199</v>
+      </c>
+      <c r="I101">
+        <v>0.09445049199468403</v>
+      </c>
+      <c r="J101">
+        <v>-0.2212349273171738</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.01706341748607241</v>
+        <v>0.007032203971594933</v>
       </c>
       <c r="C102">
-        <v>-0.08136696419511923</v>
+        <v>-0.03892644907619169</v>
       </c>
       <c r="D102">
-        <v>-0.05550318945640256</v>
+        <v>-0.01360039024938384</v>
       </c>
       <c r="E102">
-        <v>0.04128575934854525</v>
+        <v>-0.04203097436046446</v>
       </c>
       <c r="F102">
-        <v>-0.03968382850446519</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.009277188445887754</v>
+      </c>
+      <c r="G102">
+        <v>0.04176237417983763</v>
+      </c>
+      <c r="H102">
+        <v>-0.01414015831076493</v>
+      </c>
+      <c r="I102">
+        <v>0.003805023293053749</v>
+      </c>
+      <c r="J102">
+        <v>0.006422418805007242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
